--- a/REGULAR/TREASURY/DE OCAMPO, MA. ELENA DE GRANO.xlsx
+++ b/REGULAR/TREASURY/DE OCAMPO, MA. ELENA DE GRANO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE CARD\REGULAR\TREASURY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\TREASURY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678A3E84-88F3-44DD-B4B6-CFF9CA0D07D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF96C6A-32B4-4990-AEC5-839F5A27D382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -30,20 +30,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="100">
   <si>
     <t>PERIOD</t>
   </si>
@@ -334,6 +326,15 @@
   </si>
   <si>
     <t>12/22,23/2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>1/9,10,11</t>
+  </si>
+  <si>
+    <t>2/8,9/2023</t>
   </si>
 </sst>
 </file>
@@ -2432,7 +2433,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K141" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K144" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="9"/>
@@ -2779,12 +2780,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K141"/>
+  <dimension ref="A2:K144"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A83" activePane="bottomLeft"/>
+      <pane ySplit="3576" topLeftCell="A85" activePane="bottomLeft"/>
       <selection activeCell="F3" sqref="F3:G3"/>
-      <selection pane="bottomLeft" activeCell="K94" sqref="K94"/>
+      <selection pane="bottomLeft" activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2947,7 +2948,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>100.529</v>
+        <v>103.029</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2957,7 +2958,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>50.417000000000002</v>
+        <v>48.917000000000002</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4826,7 +4827,9 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
-      <c r="B94" s="20"/>
+      <c r="B94" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="C94" s="13"/>
       <c r="D94" s="39"/>
       <c r="E94" s="9"/>
@@ -4835,13 +4838,19 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H94" s="39"/>
+      <c r="H94" s="39">
+        <v>1</v>
+      </c>
       <c r="I94" s="9"/>
       <c r="J94" s="11"/>
-      <c r="K94" s="20"/>
+      <c r="K94" s="49">
+        <v>44923</v>
+      </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A95" s="40"/>
+      <c r="A95" s="48" t="s">
+        <v>97</v>
+      </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
       <c r="D95" s="39"/>
@@ -4857,40 +4866,60 @@
       <c r="K95" s="20"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A96" s="40"/>
-      <c r="B96" s="20"/>
-      <c r="C96" s="13"/>
+      <c r="A96" s="40">
+        <v>44927</v>
+      </c>
+      <c r="B96" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C96" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D96" s="39"/>
       <c r="E96" s="9"/>
       <c r="F96" s="20"/>
-      <c r="G96" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H96" s="39"/>
+      <c r="G96" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H96" s="39">
+        <v>3</v>
+      </c>
       <c r="I96" s="9"/>
       <c r="J96" s="11"/>
-      <c r="K96" s="20"/>
+      <c r="K96" s="20" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A97" s="40"/>
-      <c r="B97" s="20"/>
-      <c r="C97" s="13"/>
+      <c r="A97" s="40">
+        <v>44958</v>
+      </c>
+      <c r="B97" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C97" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D97" s="39"/>
       <c r="E97" s="9"/>
       <c r="F97" s="20"/>
-      <c r="G97" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G97" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H97" s="39"/>
       <c r="I97" s="9"/>
       <c r="J97" s="11"/>
-      <c r="K97" s="20"/>
+      <c r="K97" s="49">
+        <v>44977</v>
+      </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
-      <c r="B98" s="20"/>
+      <c r="B98" s="20" t="s">
+        <v>69</v>
+      </c>
       <c r="C98" s="13"/>
       <c r="D98" s="39"/>
       <c r="E98" s="9"/>
@@ -4902,10 +4931,14 @@
       <c r="H98" s="39"/>
       <c r="I98" s="9"/>
       <c r="J98" s="11"/>
-      <c r="K98" s="20"/>
+      <c r="K98" s="49" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A99" s="40"/>
+      <c r="A99" s="40">
+        <v>44986</v>
+      </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
       <c r="D99" s="39"/>
@@ -4921,7 +4954,9 @@
       <c r="K99" s="20"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A100" s="40"/>
+      <c r="A100" s="40">
+        <v>45017</v>
+      </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
       <c r="D100" s="39"/>
@@ -4937,7 +4972,9 @@
       <c r="K100" s="20"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A101" s="40"/>
+      <c r="A101" s="40">
+        <v>45047</v>
+      </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
       <c r="D101" s="39"/>
@@ -4953,7 +4990,9 @@
       <c r="K101" s="20"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A102" s="40"/>
+      <c r="A102" s="40">
+        <v>45078</v>
+      </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
       <c r="D102" s="39"/>
@@ -4969,7 +5008,9 @@
       <c r="K102" s="20"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A103" s="40"/>
+      <c r="A103" s="40">
+        <v>45108</v>
+      </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
       <c r="D103" s="39"/>
@@ -4985,7 +5026,9 @@
       <c r="K103" s="20"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A104" s="40"/>
+      <c r="A104" s="40">
+        <v>45139</v>
+      </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
       <c r="D104" s="39"/>
@@ -5001,7 +5044,9 @@
       <c r="K104" s="20"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A105" s="40"/>
+      <c r="A105" s="40">
+        <v>45170</v>
+      </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
       <c r="D105" s="39"/>
@@ -5017,7 +5062,9 @@
       <c r="K105" s="20"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A106" s="40"/>
+      <c r="A106" s="40">
+        <v>45200</v>
+      </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
       <c r="D106" s="39"/>
@@ -5033,7 +5080,9 @@
       <c r="K106" s="20"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A107" s="40"/>
+      <c r="A107" s="40">
+        <v>45231</v>
+      </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
       <c r="D107" s="39"/>
@@ -5049,7 +5098,9 @@
       <c r="K107" s="20"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A108" s="40"/>
+      <c r="A108" s="40">
+        <v>45261</v>
+      </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
       <c r="D108" s="39"/>
@@ -5065,7 +5116,9 @@
       <c r="K108" s="20"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A109" s="40"/>
+      <c r="A109" s="40">
+        <v>45292</v>
+      </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
       <c r="D109" s="39"/>
@@ -5081,7 +5134,9 @@
       <c r="K109" s="20"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A110" s="40"/>
+      <c r="A110" s="40">
+        <v>45323</v>
+      </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
       <c r="D110" s="39"/>
@@ -5097,7 +5152,9 @@
       <c r="K110" s="20"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A111" s="40"/>
+      <c r="A111" s="40">
+        <v>45352</v>
+      </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
       <c r="D111" s="39"/>
@@ -5113,7 +5170,9 @@
       <c r="K111" s="20"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A112" s="40"/>
+      <c r="A112" s="40">
+        <v>45383</v>
+      </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
       <c r="D112" s="39"/>
@@ -5129,7 +5188,9 @@
       <c r="K112" s="20"/>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A113" s="40"/>
+      <c r="A113" s="40">
+        <v>45413</v>
+      </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
       <c r="D113" s="39"/>
@@ -5145,7 +5206,9 @@
       <c r="K113" s="20"/>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A114" s="40"/>
+      <c r="A114" s="40">
+        <v>45444</v>
+      </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
       <c r="D114" s="39"/>
@@ -5161,7 +5224,9 @@
       <c r="K114" s="20"/>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A115" s="40"/>
+      <c r="A115" s="40">
+        <v>45474</v>
+      </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
       <c r="D115" s="39"/>
@@ -5177,7 +5242,9 @@
       <c r="K115" s="20"/>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A116" s="40"/>
+      <c r="A116" s="40">
+        <v>45505</v>
+      </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
       <c r="D116" s="39"/>
@@ -5193,7 +5260,9 @@
       <c r="K116" s="20"/>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A117" s="40"/>
+      <c r="A117" s="40">
+        <v>45536</v>
+      </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
       <c r="D117" s="39"/>
@@ -5209,7 +5278,9 @@
       <c r="K117" s="20"/>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A118" s="40"/>
+      <c r="A118" s="40">
+        <v>45566</v>
+      </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
       <c r="D118" s="39"/>
@@ -5225,7 +5296,9 @@
       <c r="K118" s="20"/>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A119" s="40"/>
+      <c r="A119" s="40">
+        <v>45597</v>
+      </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
       <c r="D119" s="39"/>
@@ -5241,7 +5314,9 @@
       <c r="K119" s="20"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A120" s="40"/>
+      <c r="A120" s="40">
+        <v>45627</v>
+      </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
       <c r="D120" s="39"/>
@@ -5257,7 +5332,9 @@
       <c r="K120" s="20"/>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A121" s="40"/>
+      <c r="A121" s="40">
+        <v>45658</v>
+      </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
       <c r="D121" s="39"/>
@@ -5273,7 +5350,9 @@
       <c r="K121" s="20"/>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A122" s="40"/>
+      <c r="A122" s="40">
+        <v>45689</v>
+      </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
       <c r="D122" s="39"/>
@@ -5289,7 +5368,9 @@
       <c r="K122" s="20"/>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A123" s="40"/>
+      <c r="A123" s="40">
+        <v>45717</v>
+      </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
       <c r="D123" s="39"/>
@@ -5305,7 +5386,9 @@
       <c r="K123" s="20"/>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A124" s="40"/>
+      <c r="A124" s="40">
+        <v>45748</v>
+      </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
       <c r="D124" s="39"/>
@@ -5321,7 +5404,9 @@
       <c r="K124" s="20"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A125" s="40"/>
+      <c r="A125" s="40">
+        <v>45778</v>
+      </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
       <c r="D125" s="39"/>
@@ -5337,7 +5422,9 @@
       <c r="K125" s="20"/>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A126" s="40"/>
+      <c r="A126" s="40">
+        <v>45809</v>
+      </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
       <c r="D126" s="39"/>
@@ -5353,7 +5440,9 @@
       <c r="K126" s="20"/>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A127" s="40"/>
+      <c r="A127" s="40">
+        <v>45839</v>
+      </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
       <c r="D127" s="39"/>
@@ -5369,7 +5458,9 @@
       <c r="K127" s="20"/>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A128" s="40"/>
+      <c r="A128" s="40">
+        <v>45870</v>
+      </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
       <c r="D128" s="39"/>
@@ -5385,7 +5476,9 @@
       <c r="K128" s="20"/>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A129" s="40"/>
+      <c r="A129" s="40">
+        <v>45901</v>
+      </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
       <c r="D129" s="39"/>
@@ -5401,7 +5494,9 @@
       <c r="K129" s="20"/>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A130" s="40"/>
+      <c r="A130" s="40">
+        <v>45931</v>
+      </c>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
       <c r="D130" s="39"/>
@@ -5417,7 +5512,9 @@
       <c r="K130" s="20"/>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A131" s="40"/>
+      <c r="A131" s="40">
+        <v>45962</v>
+      </c>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
       <c r="D131" s="39"/>
@@ -5433,7 +5530,9 @@
       <c r="K131" s="20"/>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A132" s="40"/>
+      <c r="A132" s="40">
+        <v>45992</v>
+      </c>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
       <c r="D132" s="39"/>
@@ -5449,7 +5548,9 @@
       <c r="K132" s="20"/>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A133" s="40"/>
+      <c r="A133" s="40">
+        <v>46023</v>
+      </c>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
       <c r="D133" s="39"/>
@@ -5465,7 +5566,9 @@
       <c r="K133" s="20"/>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A134" s="40"/>
+      <c r="A134" s="40">
+        <v>46054</v>
+      </c>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
       <c r="D134" s="39"/>
@@ -5481,7 +5584,9 @@
       <c r="K134" s="20"/>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A135" s="40"/>
+      <c r="A135" s="40">
+        <v>46082</v>
+      </c>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
       <c r="D135" s="39"/>
@@ -5497,7 +5602,9 @@
       <c r="K135" s="20"/>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A136" s="40"/>
+      <c r="A136" s="40">
+        <v>46113</v>
+      </c>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
       <c r="D136" s="39"/>
@@ -5513,7 +5620,9 @@
       <c r="K136" s="20"/>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A137" s="40"/>
+      <c r="A137" s="40">
+        <v>46143</v>
+      </c>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
       <c r="D137" s="39"/>
@@ -5529,7 +5638,9 @@
       <c r="K137" s="20"/>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A138" s="40"/>
+      <c r="A138" s="40">
+        <v>46174</v>
+      </c>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
       <c r="D138" s="39"/>
@@ -5545,7 +5656,9 @@
       <c r="K138" s="20"/>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A139" s="40"/>
+      <c r="A139" s="40">
+        <v>46204</v>
+      </c>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
       <c r="D139" s="39"/>
@@ -5561,7 +5674,9 @@
       <c r="K139" s="20"/>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A140" s="40"/>
+      <c r="A140" s="40">
+        <v>46235</v>
+      </c>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
       <c r="D140" s="39"/>
@@ -5577,20 +5692,72 @@
       <c r="K140" s="20"/>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A141" s="41"/>
-      <c r="B141" s="15"/>
-      <c r="C141" s="42"/>
-      <c r="D141" s="43"/>
+      <c r="A141" s="40">
+        <v>46266</v>
+      </c>
+      <c r="B141" s="20"/>
+      <c r="C141" s="13"/>
+      <c r="D141" s="39"/>
       <c r="E141" s="9"/>
-      <c r="F141" s="15"/>
-      <c r="G141" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H141" s="43"/>
+      <c r="F141" s="20"/>
+      <c r="G141" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H141" s="39"/>
       <c r="I141" s="9"/>
-      <c r="J141" s="12"/>
-      <c r="K141" s="15"/>
+      <c r="J141" s="11"/>
+      <c r="K141" s="20"/>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A142" s="40">
+        <v>46296</v>
+      </c>
+      <c r="B142" s="20"/>
+      <c r="C142" s="13"/>
+      <c r="D142" s="39"/>
+      <c r="E142" s="9"/>
+      <c r="F142" s="20"/>
+      <c r="G142" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H142" s="39"/>
+      <c r="I142" s="9"/>
+      <c r="J142" s="11"/>
+      <c r="K142" s="20"/>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A143" s="40"/>
+      <c r="B143" s="20"/>
+      <c r="C143" s="13"/>
+      <c r="D143" s="39"/>
+      <c r="E143" s="9"/>
+      <c r="F143" s="20"/>
+      <c r="G143" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H143" s="39"/>
+      <c r="I143" s="9"/>
+      <c r="J143" s="11"/>
+      <c r="K143" s="20"/>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A144" s="41"/>
+      <c r="B144" s="15"/>
+      <c r="C144" s="42"/>
+      <c r="D144" s="43"/>
+      <c r="E144" s="9"/>
+      <c r="F144" s="15"/>
+      <c r="G144" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H144" s="43"/>
+      <c r="I144" s="9"/>
+      <c r="J144" s="12"/>
+      <c r="K144" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/TREASURY/DE OCAMPO, MA. ELENA DE GRANO.xlsx
+++ b/REGULAR/TREASURY/DE OCAMPO, MA. ELENA DE GRANO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\TREASURY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\TREASURY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF96C6A-32B4-4990-AEC5-839F5A27D382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26EFBECB-BE09-4D28-B9E4-D8A7C797A160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="100">
   <si>
     <t>PERIOD</t>
   </si>
@@ -169,9 +169,6 @@
     <t>PERMANENT</t>
   </si>
   <si>
-    <t>ADMIN AIDE II</t>
-  </si>
-  <si>
     <t>SP/VMO</t>
   </si>
   <si>
@@ -335,6 +332,9 @@
   </si>
   <si>
     <t>2/8,9/2023</t>
+  </si>
+  <si>
+    <t>ADMIN AIDE III</t>
   </si>
 </sst>
 </file>
@@ -2783,9 +2783,9 @@
   <dimension ref="A2:K144"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A85" activePane="bottomLeft"/>
-      <selection activeCell="F3" sqref="F3:G3"/>
-      <selection pane="bottomLeft" activeCell="B99" sqref="B99"/>
+      <pane ySplit="3576" topLeftCell="A95" activePane="bottomLeft"/>
+      <selection activeCell="B2" sqref="B2:C2"/>
+      <selection pane="bottomLeft" activeCell="K100" sqref="K100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2829,7 +2829,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="51" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="C3" s="51"/>
       <c r="D3" s="22" t="s">
@@ -2856,7 +2856,7 @@
         <v>12</v>
       </c>
       <c r="F4" s="52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
@@ -2948,7 +2948,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>103.029</v>
+        <v>104.279</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2958,14 +2958,14 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>48.917000000000002</v>
+        <v>49.167000000000002</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10" s="20"/>
       <c r="C10" s="13"/>
@@ -2990,7 +2990,7 @@
         <v>43101</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C11" s="13">
         <v>1.25</v>
@@ -3008,7 +3008,7 @@
       <c r="I11" s="9"/>
       <c r="J11" s="11"/>
       <c r="K11" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -3016,7 +3016,7 @@
         <v>43132</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C12" s="13">
         <v>1.25</v>
@@ -3038,7 +3038,7 @@
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40"/>
       <c r="B13" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="39"/>
@@ -3054,7 +3054,7 @@
       <c r="I13" s="9"/>
       <c r="J13" s="11"/>
       <c r="K13" s="49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -3062,7 +3062,7 @@
         <v>43160</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C14" s="13">
         <v>1.25</v>
@@ -3078,7 +3078,7 @@
       <c r="I14" s="9"/>
       <c r="J14" s="11"/>
       <c r="K14" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -3146,7 +3146,7 @@
         <v>43282</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C18" s="13">
         <v>1.25</v>
@@ -3162,7 +3162,7 @@
       <c r="I18" s="9"/>
       <c r="J18" s="11"/>
       <c r="K18" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -3170,7 +3170,7 @@
         <v>43313</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C19" s="13">
         <v>1.25</v>
@@ -3186,7 +3186,7 @@
       <c r="I19" s="9"/>
       <c r="J19" s="11"/>
       <c r="K19" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -3214,7 +3214,7 @@
         <v>43374</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C21" s="13">
         <v>1.25</v>
@@ -3238,7 +3238,7 @@
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40"/>
       <c r="B22" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C22" s="13"/>
       <c r="D22" s="39"/>
@@ -3254,7 +3254,7 @@
       <c r="I22" s="9"/>
       <c r="J22" s="11"/>
       <c r="K22" s="49" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -3262,7 +3262,7 @@
         <v>43405</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C23" s="13">
         <v>1.25</v>
@@ -3280,13 +3280,13 @@
       <c r="I23" s="9"/>
       <c r="J23" s="11"/>
       <c r="K23" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40"/>
       <c r="B24" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="39">
@@ -3302,7 +3302,7 @@
       <c r="I24" s="9"/>
       <c r="J24" s="11"/>
       <c r="K24" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -3310,7 +3310,7 @@
         <v>43435</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C25" s="13">
         <v>1.25</v>
@@ -3334,7 +3334,7 @@
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="39">
@@ -3350,13 +3350,13 @@
       <c r="I26" s="9"/>
       <c r="J26" s="11"/>
       <c r="K26" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40"/>
       <c r="B27" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="39"/>
@@ -3372,12 +3372,12 @@
       <c r="I27" s="9"/>
       <c r="J27" s="11"/>
       <c r="K27" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="13"/>
@@ -3398,7 +3398,7 @@
         <v>43466</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C29" s="13">
         <v>1.25</v>
@@ -3420,7 +3420,7 @@
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="39"/>
@@ -3444,7 +3444,7 @@
         <v>43497</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C31" s="13">
         <v>1.25</v>
@@ -3460,13 +3460,13 @@
       <c r="I31" s="9"/>
       <c r="J31" s="11"/>
       <c r="K31" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="39"/>
@@ -3482,7 +3482,7 @@
       <c r="I32" s="9"/>
       <c r="J32" s="11"/>
       <c r="K32" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -3510,7 +3510,7 @@
         <v>43556</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C34" s="13">
         <v>1.25</v>
@@ -3534,7 +3534,7 @@
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C35" s="13"/>
       <c r="D35" s="39"/>
@@ -3556,7 +3556,7 @@
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="39"/>
@@ -3580,7 +3580,7 @@
         <v>43586</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C37" s="13">
         <v>1.25</v>
@@ -3604,7 +3604,7 @@
         <v>43617</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C38" s="13">
         <v>1.25</v>
@@ -3708,7 +3708,7 @@
         <v>43770</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C43" s="13">
         <v>1.25</v>
@@ -3724,13 +3724,13 @@
       <c r="I43" s="9"/>
       <c r="J43" s="11"/>
       <c r="K43" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="39"/>
@@ -3754,7 +3754,7 @@
         <v>43800</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C45" s="13">
         <v>1.25</v>
@@ -3772,13 +3772,13 @@
       <c r="I45" s="9"/>
       <c r="J45" s="11"/>
       <c r="K45" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C46" s="13"/>
       <c r="D46" s="39">
@@ -3794,12 +3794,12 @@
       <c r="I46" s="9"/>
       <c r="J46" s="11"/>
       <c r="K46" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="48" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -3840,7 +3840,7 @@
         <v>43862</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C49" s="13">
         <v>1.25</v>
@@ -3856,7 +3856,7 @@
       <c r="I49" s="9"/>
       <c r="J49" s="11"/>
       <c r="K49" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
@@ -3864,7 +3864,7 @@
         <v>43891</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C50" s="13">
         <v>1.25</v>
@@ -3948,7 +3948,7 @@
         <v>44013</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C54" s="13">
         <v>1.25</v>
@@ -3974,7 +3974,7 @@
         <v>44044</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C55" s="13">
         <v>1.25</v>
@@ -4000,7 +4000,7 @@
         <v>44075</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C56" s="13">
         <v>1.25</v>
@@ -4064,7 +4064,7 @@
         <v>44166</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C59" s="13">
         <v>1.25</v>
@@ -4080,13 +4080,13 @@
       <c r="I59" s="9"/>
       <c r="J59" s="11"/>
       <c r="K59" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40"/>
       <c r="B60" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C60" s="13"/>
       <c r="D60" s="39">
@@ -4102,13 +4102,13 @@
       <c r="I60" s="9"/>
       <c r="J60" s="11"/>
       <c r="K60" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40"/>
       <c r="B61" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C61" s="13"/>
       <c r="D61" s="39">
@@ -4127,7 +4127,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -4148,7 +4148,7 @@
         <v>44197</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C63" s="13">
         <v>1.25</v>
@@ -4274,7 +4274,7 @@
         <v>44378</v>
       </c>
       <c r="B69" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C69" s="13">
         <v>1.25</v>
@@ -4290,7 +4290,7 @@
       <c r="I69" s="9"/>
       <c r="J69" s="11"/>
       <c r="K69" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
@@ -4378,7 +4378,7 @@
         <v>44531</v>
       </c>
       <c r="B74" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C74" s="13">
         <v>1.25</v>
@@ -4396,13 +4396,13 @@
       <c r="I74" s="9"/>
       <c r="J74" s="11"/>
       <c r="K74" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C75" s="13"/>
       <c r="D75" s="39">
@@ -4421,7 +4421,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -4442,7 +4442,7 @@
         <v>44562</v>
       </c>
       <c r="B77" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C77" s="13">
         <v>1.25</v>
@@ -4460,7 +4460,7 @@
       <c r="I77" s="9"/>
       <c r="J77" s="11"/>
       <c r="K77" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
@@ -4508,7 +4508,7 @@
         <v>44652</v>
       </c>
       <c r="B80" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C80" s="13">
         <v>1.25</v>
@@ -4524,7 +4524,7 @@
       <c r="I80" s="9"/>
       <c r="J80" s="11"/>
       <c r="K80" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
@@ -4552,7 +4552,7 @@
         <v>44713</v>
       </c>
       <c r="B82" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C82" s="13">
         <v>1.25</v>
@@ -4576,7 +4576,7 @@
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C83" s="13"/>
       <c r="D83" s="39"/>
@@ -4596,7 +4596,7 @@
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C84" s="13"/>
       <c r="D84" s="39"/>
@@ -4612,13 +4612,13 @@
       <c r="I84" s="9"/>
       <c r="J84" s="11"/>
       <c r="K84" s="49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C85" s="13"/>
       <c r="D85" s="39"/>
@@ -4634,13 +4634,13 @@
       <c r="I85" s="9"/>
       <c r="J85" s="11"/>
       <c r="K85" s="49" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C86" s="13"/>
       <c r="D86" s="39"/>
@@ -4656,7 +4656,7 @@
       <c r="I86" s="9"/>
       <c r="J86" s="11"/>
       <c r="K86" s="49" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
@@ -4684,7 +4684,7 @@
         <v>44774</v>
       </c>
       <c r="B88" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C88" s="13">
         <v>1.25</v>
@@ -4708,7 +4708,7 @@
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C89" s="13"/>
       <c r="D89" s="39"/>
@@ -4724,7 +4724,7 @@
       <c r="I89" s="9"/>
       <c r="J89" s="11"/>
       <c r="K89" s="49" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
@@ -4732,7 +4732,7 @@
         <v>44805</v>
       </c>
       <c r="B90" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C90" s="13">
         <v>1.25</v>
@@ -4758,7 +4758,7 @@
         <v>44835</v>
       </c>
       <c r="B91" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C91" s="13">
         <v>1.25</v>
@@ -4776,7 +4776,7 @@
       <c r="I91" s="9"/>
       <c r="J91" s="11"/>
       <c r="K91" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
@@ -4804,7 +4804,7 @@
         <v>44896</v>
       </c>
       <c r="B93" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C93" s="13">
         <v>1.25</v>
@@ -4822,13 +4822,13 @@
       <c r="I93" s="9"/>
       <c r="J93" s="11"/>
       <c r="K93" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C94" s="13"/>
       <c r="D94" s="39"/>
@@ -4849,7 +4849,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -4870,7 +4870,7 @@
         <v>44927</v>
       </c>
       <c r="B96" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C96" s="13">
         <v>1.25</v>
@@ -4888,7 +4888,7 @@
       <c r="I96" s="9"/>
       <c r="J96" s="11"/>
       <c r="K96" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
@@ -4896,7 +4896,7 @@
         <v>44958</v>
       </c>
       <c r="B97" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C97" s="13">
         <v>1.25</v>
@@ -4918,7 +4918,7 @@
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C98" s="13"/>
       <c r="D98" s="39"/>
@@ -4932,26 +4932,34 @@
       <c r="I98" s="9"/>
       <c r="J98" s="11"/>
       <c r="K98" s="49" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
         <v>44986</v>
       </c>
-      <c r="B99" s="20"/>
-      <c r="C99" s="13"/>
+      <c r="B99" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C99" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D99" s="39"/>
       <c r="E99" s="9"/>
       <c r="F99" s="20"/>
-      <c r="G99" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H99" s="39"/>
+      <c r="G99" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H99" s="39">
+        <v>1</v>
+      </c>
       <c r="I99" s="9"/>
       <c r="J99" s="11"/>
-      <c r="K99" s="20"/>
+      <c r="K99" s="49">
+        <v>45002</v>
+      </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">

--- a/REGULAR/TREASURY/DE OCAMPO, MA. ELENA DE GRANO.xlsx
+++ b/REGULAR/TREASURY/DE OCAMPO, MA. ELENA DE GRANO.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\TREASURY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\TREASURY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26EFBECB-BE09-4D28-B9E4-D8A7C797A160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="101">
   <si>
     <t>PERIOD</t>
   </si>
@@ -335,12 +334,15 @@
   </si>
   <si>
     <t>ADMIN AIDE III</t>
+  </si>
+  <si>
+    <t>SL(0-4-0)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -981,7 +983,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1029,7 +1030,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1072,7 +1073,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1136,7 +1137,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1196,7 +1197,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1262,7 +1263,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1325,7 +1326,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1423,7 +1424,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1482,7 +1483,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1547,7 +1548,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1590,7 +1591,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1665,7 +1666,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1851,7 +1852,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1917,7 +1918,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1975,7 +1976,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2041,7 +2042,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2097,7 +2098,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2172,7 +2173,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2215,7 +2216,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2281,7 +2282,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2337,7 +2338,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2433,25 +2434,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K144" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K144" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{23618FA7-8FE1-47F3-A791-7E4F2612427B}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{BA6D2C36-5CF4-40D7-AFDD-218AEBB26721}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{44B79BA7-06A4-4888-BFE5-96396FB13C9E}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1A20B288-1D72-4858-B3C2-871EB9CF011E}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{16E84B2D-53AC-4AEA-B1BC-1BC1E2E9B51B}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{A10DEDBF-F571-4518-A832-0B75654FC984}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{9E225A68-4AC2-420E-B4D1-1378612CB5CD}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{715FA023-3759-440B-8D8E-42D3E30EC36F}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{7E55BDC4-4FFC-4009-94E5-7F3F3565D56A}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2758,7 +2759,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D098C40-D36A-4A12-B6E1-6D049DE49862}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2768,7 +2769,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2776,34 +2777,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FF8E2B-FA0C-43AD-94F6-3305AF75672F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K144"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A95" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A91" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="K100" sqref="K100"/>
+      <selection pane="bottomLeft" activeCell="H102" sqref="H102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2824,7 +2825,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2844,7 +2845,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2866,7 +2867,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2874,7 +2875,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2887,7 +2888,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -2904,7 +2905,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2939,7 +2940,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2958,12 +2959,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>49.167000000000002</v>
+        <v>48.667000000000002</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>45</v>
       </c>
@@ -2985,7 +2986,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3011,7 +3012,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3035,7 +3036,7 @@
         <v>43143</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40"/>
       <c r="B13" s="20" t="s">
         <v>46</v>
@@ -3057,7 +3058,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43160</v>
       </c>
@@ -3081,7 +3082,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43191</v>
       </c>
@@ -3101,7 +3102,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43221</v>
       </c>
@@ -3121,7 +3122,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43252</v>
       </c>
@@ -3141,7 +3142,7 @@
       <c r="J17" s="12"/>
       <c r="K17" s="15"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43282</v>
       </c>
@@ -3165,7 +3166,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43313</v>
       </c>
@@ -3189,7 +3190,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43344</v>
       </c>
@@ -3209,7 +3210,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43374</v>
       </c>
@@ -3235,7 +3236,7 @@
         <v>43398</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
       <c r="B22" s="20" t="s">
         <v>55</v>
@@ -3257,7 +3258,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>43405</v>
       </c>
@@ -3283,7 +3284,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
       <c r="B24" s="20" t="s">
         <v>58</v>
@@ -3305,7 +3306,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43435</v>
       </c>
@@ -3331,7 +3332,7 @@
         <v>43441</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
         <v>60</v>
@@ -3353,7 +3354,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40"/>
       <c r="B27" s="20" t="s">
         <v>46</v>
@@ -3375,7 +3376,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="48" t="s">
         <v>63</v>
       </c>
@@ -3393,7 +3394,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>43466</v>
       </c>
@@ -3417,7 +3418,7 @@
         <v>43480</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>54</v>
@@ -3439,7 +3440,7 @@
         <v>43476</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>43497</v>
       </c>
@@ -3463,7 +3464,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
         <v>46</v>
@@ -3485,7 +3486,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43525</v>
       </c>
@@ -3505,7 +3506,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>43556</v>
       </c>
@@ -3531,7 +3532,7 @@
         <v>43558</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>54</v>
@@ -3553,7 +3554,7 @@
         <v>43573</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>54</v>
@@ -3575,7 +3576,7 @@
         <v>43584</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>43586</v>
       </c>
@@ -3599,7 +3600,7 @@
         <v>43588</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>43617</v>
       </c>
@@ -3623,7 +3624,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>43647</v>
       </c>
@@ -3643,7 +3644,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>43678</v>
       </c>
@@ -3663,7 +3664,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>43709</v>
       </c>
@@ -3683,7 +3684,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>43739</v>
       </c>
@@ -3703,7 +3704,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>43770</v>
       </c>
@@ -3727,7 +3728,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>54</v>
@@ -3749,7 +3750,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>43800</v>
       </c>
@@ -3775,7 +3776,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>58</v>
@@ -3797,7 +3798,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="48" t="s">
         <v>73</v>
       </c>
@@ -3815,7 +3816,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>43831</v>
       </c>
@@ -3835,7 +3836,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>43862</v>
       </c>
@@ -3859,7 +3860,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>43891</v>
       </c>
@@ -3883,7 +3884,7 @@
         <v>43902</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>43922</v>
       </c>
@@ -3903,7 +3904,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>43952</v>
       </c>
@@ -3923,7 +3924,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>43983</v>
       </c>
@@ -3943,7 +3944,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>44013</v>
       </c>
@@ -3969,7 +3970,7 @@
         <v>44042</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>44044</v>
       </c>
@@ -3995,7 +3996,7 @@
         <v>44063</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>44075</v>
       </c>
@@ -4019,7 +4020,7 @@
         <v>44084</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>44105</v>
       </c>
@@ -4039,7 +4040,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>44136</v>
       </c>
@@ -4059,7 +4060,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44166</v>
       </c>
@@ -4083,7 +4084,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20" t="s">
         <v>77</v>
@@ -4105,7 +4106,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="20" t="s">
         <v>79</v>
@@ -4125,7 +4126,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="48" t="s">
         <v>80</v>
       </c>
@@ -4143,7 +4144,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>44197</v>
       </c>
@@ -4169,7 +4170,7 @@
         <v>44218</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44228</v>
       </c>
@@ -4189,7 +4190,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>44256</v>
       </c>
@@ -4209,7 +4210,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>44287</v>
       </c>
@@ -4229,7 +4230,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>44317</v>
       </c>
@@ -4249,7 +4250,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>44348</v>
       </c>
@@ -4269,7 +4270,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44378</v>
       </c>
@@ -4293,7 +4294,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>44409</v>
       </c>
@@ -4313,7 +4314,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>44440</v>
       </c>
@@ -4333,7 +4334,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>44470</v>
       </c>
@@ -4353,7 +4354,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>44501</v>
       </c>
@@ -4373,7 +4374,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>44531</v>
       </c>
@@ -4399,7 +4400,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>84</v>
@@ -4419,7 +4420,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="48" t="s">
         <v>85</v>
       </c>
@@ -4437,7 +4438,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>44562</v>
       </c>
@@ -4463,7 +4464,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>44593</v>
       </c>
@@ -4483,7 +4484,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>44621</v>
       </c>
@@ -4503,7 +4504,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>44652</v>
       </c>
@@ -4527,7 +4528,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>44682</v>
       </c>
@@ -4547,7 +4548,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>44713</v>
       </c>
@@ -4573,7 +4574,7 @@
         <v>44676</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20" t="s">
         <v>67</v>
@@ -4593,7 +4594,7 @@
         <v>44685</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
         <v>55</v>
@@ -4615,7 +4616,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>54</v>
@@ -4637,7 +4638,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20" t="s">
         <v>55</v>
@@ -4659,7 +4660,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>44743</v>
       </c>
@@ -4679,7 +4680,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>44774</v>
       </c>
@@ -4705,7 +4706,7 @@
         <v>44782</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
         <v>46</v>
@@ -4727,7 +4728,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>44805</v>
       </c>
@@ -4753,7 +4754,7 @@
         <v>44810</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>44835</v>
       </c>
@@ -4779,7 +4780,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>44866</v>
       </c>
@@ -4799,7 +4800,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>44896</v>
       </c>
@@ -4825,7 +4826,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
         <v>54</v>
@@ -4847,7 +4848,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="48" t="s">
         <v>96</v>
       </c>
@@ -4865,7 +4866,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>44927</v>
       </c>
@@ -4891,7 +4892,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>44958</v>
       </c>
@@ -4915,7 +4916,7 @@
         <v>44977</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20" t="s">
         <v>68</v>
@@ -4935,7 +4936,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>44986</v>
       </c>
@@ -4961,11 +4962,13 @@
         <v>45002</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>45017</v>
       </c>
-      <c r="B100" s="20"/>
+      <c r="B100" s="20" t="s">
+        <v>100</v>
+      </c>
       <c r="C100" s="13"/>
       <c r="D100" s="39"/>
       <c r="E100" s="9"/>
@@ -4977,9 +4980,11 @@
       <c r="H100" s="39"/>
       <c r="I100" s="9"/>
       <c r="J100" s="11"/>
-      <c r="K100" s="20"/>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K100" s="49">
+        <v>45021</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>45047</v>
       </c>
@@ -4992,12 +4997,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H101" s="39"/>
+      <c r="H101" s="39">
+        <v>0.5</v>
+      </c>
       <c r="I101" s="9"/>
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>45078</v>
       </c>
@@ -5015,7 +5022,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>45108</v>
       </c>
@@ -5033,7 +5040,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>45139</v>
       </c>
@@ -5051,7 +5058,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <v>45170</v>
       </c>
@@ -5069,7 +5076,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>45200</v>
       </c>
@@ -5087,7 +5094,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>45231</v>
       </c>
@@ -5105,7 +5112,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>45261</v>
       </c>
@@ -5123,7 +5130,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <v>45292</v>
       </c>
@@ -5141,7 +5148,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>45323</v>
       </c>
@@ -5159,7 +5166,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>45352</v>
       </c>
@@ -5177,7 +5184,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <v>45383</v>
       </c>
@@ -5195,7 +5202,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <v>45413</v>
       </c>
@@ -5213,7 +5220,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>45444</v>
       </c>
@@ -5231,7 +5238,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>45474</v>
       </c>
@@ -5249,7 +5256,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>45505</v>
       </c>
@@ -5267,7 +5274,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>45536</v>
       </c>
@@ -5285,7 +5292,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <v>45566</v>
       </c>
@@ -5303,7 +5310,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>45597</v>
       </c>
@@ -5321,7 +5328,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>45627</v>
       </c>
@@ -5339,7 +5346,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <v>45658</v>
       </c>
@@ -5357,7 +5364,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <v>45689</v>
       </c>
@@ -5375,7 +5382,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <v>45717</v>
       </c>
@@ -5393,7 +5400,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <v>45748</v>
       </c>
@@ -5411,7 +5418,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <v>45778</v>
       </c>
@@ -5429,7 +5436,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <v>45809</v>
       </c>
@@ -5447,7 +5454,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <v>45839</v>
       </c>
@@ -5465,7 +5472,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <v>45870</v>
       </c>
@@ -5483,7 +5490,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <v>45901</v>
       </c>
@@ -5501,7 +5508,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <v>45931</v>
       </c>
@@ -5519,7 +5526,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <v>45962</v>
       </c>
@@ -5537,7 +5544,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <v>45992</v>
       </c>
@@ -5555,7 +5562,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <v>46023</v>
       </c>
@@ -5573,7 +5580,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <v>46054</v>
       </c>
@@ -5591,7 +5598,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
         <v>46082</v>
       </c>
@@ -5609,7 +5616,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <v>46113</v>
       </c>
@@ -5627,7 +5634,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <v>46143</v>
       </c>
@@ -5645,7 +5652,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
         <v>46174</v>
       </c>
@@ -5663,7 +5670,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <v>46204</v>
       </c>
@@ -5681,7 +5688,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
         <v>46235</v>
       </c>
@@ -5699,7 +5706,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
         <v>46266</v>
       </c>
@@ -5717,7 +5724,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <v>46296</v>
       </c>
@@ -5735,7 +5742,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40"/>
       <c r="B143" s="20"/>
       <c r="C143" s="13"/>
@@ -5751,7 +5758,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="41"/>
       <c r="B144" s="15"/>
       <c r="C144" s="42"/>
@@ -5782,10 +5789,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{3C67B38A-DE91-4BA1-85D0-F5C61D6395E6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{C9F25C0C-606E-415B-87B4-B098DE141EB5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5808,28 +5815,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB8F789-193C-43F9-8D48-B0DEE5C76ADA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -5842,7 +5849,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -5871,7 +5878,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>52.529000000000003</v>
       </c>
@@ -5895,17 +5902,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -5926,7 +5933,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -5953,7 +5960,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -5979,7 +5986,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -6005,7 +6012,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -6031,7 +6038,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -6057,7 +6064,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -6083,7 +6090,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -6109,7 +6116,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -6135,7 +6142,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -6155,7 +6162,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -6175,7 +6182,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -6195,7 +6202,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -6216,7 +6223,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -6237,7 +6244,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -6258,7 +6265,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -6279,7 +6286,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -6300,7 +6307,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -6321,7 +6328,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -6342,7 +6349,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -6363,7 +6370,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -6384,7 +6391,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -6405,7 +6412,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -6426,7 +6433,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -6447,7 +6454,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -6468,7 +6475,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -6489,7 +6496,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -6510,7 +6517,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -6531,7 +6538,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -6552,7 +6559,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -6573,7 +6580,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -6594,7 +6601,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -6615,7 +6622,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -6624,7 +6631,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -6633,7 +6640,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -6642,7 +6649,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -6651,7 +6658,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -6660,7 +6667,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -6669,7 +6676,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -6678,7 +6685,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -6687,7 +6694,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -6696,7 +6703,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -6705,7 +6712,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -6714,7 +6721,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -6723,7 +6730,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -6732,7 +6739,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -6741,7 +6748,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -6750,7 +6757,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -6759,7 +6766,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -6768,7 +6775,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -6777,7 +6784,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -6786,7 +6793,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -6795,7 +6802,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -6804,7 +6811,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -6813,7 +6820,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -6822,7 +6829,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -6831,7 +6838,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -6840,7 +6847,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -6849,7 +6856,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -6858,7 +6865,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -6867,7 +6874,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -6876,7 +6883,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
